--- a/biology/Neurosciences/Enképhaline/Enképhaline.xlsx
+++ b/biology/Neurosciences/Enképhaline/Enképhaline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Enk%C3%A9phaline</t>
+          <t>Enképhaline</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enképhaline (ou encéphaline) est un neurotransmetteur, faisant partie de la catégorie des neuropeptides plus spécifiquement des opioïdes endogènes, qui est libéré par des neurones lors d'une sensation douloureuse trop intense.
 Leur rôle physiologique principal est l'inhibition des potentiels d'action responsables de la propagation du message douloureux jusqu'au cerveau, qui se traduit sur le plan clinique par une analgésie. La morphine et les autres opioïdes, agissent selon le même mode que l'enképhaline.
